--- a/remap_ville_plugin/CH_ReMaP/archetypes/URB_2060_DGT/use_types/USE_TYPE_PROPERTIES.xlsx
+++ b/remap_ville_plugin/CH_ReMaP/archetypes/URB_2060_DGT/use_types/USE_TYPE_PROPERTIES.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoraiopoulos\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\CH_ReMaP\archetypes\URB_2060_DGT\use_types\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shsieh\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\CH_ReMaP\archetypes\URB_2060_DGT\use_types\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1421511D-857A-4304-B18D-E0DF5C897431}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCE03D7-78BE-414C-A0F7-DC92FDB1002F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19080" yWindow="2145" windowWidth="17280" windowHeight="13980" tabRatio="785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15225" tabRatio="785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTERNAL_LOADS" sheetId="1" r:id="rId1"/>
@@ -555,25 +555,25 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="11.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" style="1" customWidth="1"/>
+    <col min="12" max="13" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.1796875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -617,7 +617,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>30</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>33</v>
       </c>
@@ -1518,24 +1518,24 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C21"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.1796875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -1578,8 +1578,7 @@
         <v>18</v>
       </c>
       <c r="F2" s="7">
-        <f>30/3.6</f>
-        <v>8.3333333333333339</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G2" s="7">
         <v>30</v>
@@ -1588,7 +1587,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1615,7 +1614,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1642,7 +1641,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1669,7 +1668,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
@@ -1696,7 +1695,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -1723,7 +1722,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>20</v>
       </c>
@@ -1750,7 +1749,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
@@ -1777,7 +1776,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>22</v>
       </c>
@@ -1804,7 +1803,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
@@ -1831,7 +1830,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
@@ -1858,7 +1857,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
@@ -1885,7 +1884,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -1912,7 +1911,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
@@ -1938,7 +1937,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
@@ -1964,7 +1963,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>29</v>
       </c>
@@ -1990,7 +1989,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>30</v>
       </c>
@@ -2017,7 +2016,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
@@ -2044,7 +2043,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>32</v>
       </c>
@@ -2071,7 +2070,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>33</v>
       </c>

--- a/remap_ville_plugin/CH_ReMaP/archetypes/URB_2060_DGT/use_types/USE_TYPE_PROPERTIES.xlsx
+++ b/remap_ville_plugin/CH_ReMaP/archetypes/URB_2060_DGT/use_types/USE_TYPE_PROPERTIES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shsieh\Documents\GitHub\cea-remap-ville-plugin\remap_ville_plugin\CH_ReMaP\archetypes\URB_2060_DGT\use_types\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCE03D7-78BE-414C-A0F7-DC92FDB1002F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD57B30-BC0B-4125-93CE-1343FACB4312}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15225" tabRatio="785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INTERNAL_LOADS" sheetId="1" r:id="rId1"/>
@@ -551,7 +551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -622,7 +622,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="9">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C2" s="9">
         <v>70</v>
@@ -1517,7 +1517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
